--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3105.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3105.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.095360324040461</v>
+        <v>1.238101243972778</v>
       </c>
       <c r="B1">
-        <v>2.339867481888399</v>
+        <v>2.299833297729492</v>
       </c>
       <c r="C1">
-        <v>2.529178843118689</v>
+        <v>3.426994323730469</v>
       </c>
       <c r="D1">
-        <v>3.566468826939628</v>
+        <v>3.851266384124756</v>
       </c>
       <c r="E1">
-        <v>2.077322511171421</v>
+        <v>1.038953900337219</v>
       </c>
     </row>
   </sheetData>
